--- a/Tabela1a.xlsx
+++ b/Tabela1a.xlsx
@@ -20,27 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">petar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marko12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slavko21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slavko12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirko34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirko43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bozo1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Petar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savkovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bozo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miskovic</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Willian</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Rowe</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Kuhn</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Franecki</t>
   </si>
 </sst>
 </file>
@@ -149,10 +188,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,39 +201,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
